--- a/public/template/Dealer.xlsx
+++ b/public/template/Dealer.xlsx
@@ -1,100 +1,56 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9144"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Communication  Address</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Mobile</t>
-  </si>
-  <si>
-    <t>A_Name</t>
-  </si>
-  <si>
-    <t>A_Designation</t>
-  </si>
-  <si>
-    <t>A_Mobile</t>
-  </si>
-  <si>
-    <t>A_Email</t>
-  </si>
-  <si>
-    <t>B_Name</t>
-  </si>
-  <si>
-    <t>B_Designation</t>
-  </si>
-  <si>
-    <t>B_Mobile</t>
-  </si>
-  <si>
-    <t>B_Email</t>
-  </si>
-  <si>
-    <t>GST</t>
-  </si>
-  <si>
-    <t>Income Tax Pan</t>
-  </si>
-  <si>
-    <t>Bank Name</t>
-  </si>
-  <si>
-    <t>Branch Name</t>
-  </si>
-  <si>
-    <t>Address</t>
-  </si>
-  <si>
-    <t>Account Number</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>IFSC</t>
-  </si>
-  <si>
-    <t>cheque_leaf</t>
-  </si>
-  <si>
-    <t>GST Certificate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>zone</t>
   </si>
   <si>
-    <t>city</t>
+    <t>code</t>
   </si>
   <si>
-    <t>state</t>
+    <t>party_name</t>
+  </si>
+  <si>
+    <t>phone_number</t>
+  </si>
+  <si>
+    <t>person_name</t>
+  </si>
+  <si>
+    <t>cus_code</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -707,9 +663,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,6 +938,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1243,104 +1205,46 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Y1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.8" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="13.1388888888889"/>
-    <col min="2" max="2" width="27.8611111111111"/>
-    <col min="4" max="4" width="10.712962962963"/>
-    <col min="6" max="6" width="12"/>
+    <col min="1" max="1" width="5.88888888888889" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="61.8888888888889" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="12.5555555555556" customWidth="1"/>
     <col min="7" max="7" width="10.8611111111111"/>
-    <col min="10" max="10" width="11.8611111111111"/>
-    <col min="11" max="11" width="10.8611111111111"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
-    <col min="16" max="16" width="12.1388888888889"/>
-    <col min="18" max="18" width="15.4444444444444" customWidth="1"/>
-    <col min="19" max="19" width="13.287037037037"/>
-    <col min="21" max="21" width="17"/>
-    <col min="22" max="22" width="12.1388888888889"/>
+    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
+    <col min="12" max="12" width="12.1388888888889"/>
+    <col min="14" max="14" width="15.4444444444444" customWidth="1"/>
+    <col min="15" max="15" width="13.287037037037"/>
+    <col min="17" max="17" width="17"/>
+    <col min="18" max="18" width="12.1388888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="W1" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
